--- a/THUHOI/6.Huong Tan/1.LIG_Huong Hoa 1/3. NDH dot 2/3.NDH.xlsx
+++ b/THUHOI/6.Huong Tan/1.LIG_Huong Hoa 1/3. NDH dot 2/3.NDH.xlsx
@@ -276,13 +276,13 @@
     <t>Cao Đăng Duy</t>
   </si>
   <si>
+    <t>BG287127</t>
+  </si>
+  <si>
     <t>DANH SÁCH THU HỒI
 TÊN DỰ ÁN: NHÀ MÁY ĐIỆN GIÓ LIG - HƯỚNG HÓA 1
-HẠNG MỤC: NHÀ ĐIỀU HÀNH (ĐỢT 2)
+HẠNG MỤC: VỊ TRÍ MÓNG TRỤ 35KV (01-T1) NHÀ ĐIỀU HÀNH (ĐỢT 2)
 ĐỊA ĐIỂM: XÃ HƯỚNG TÂN - HUYỆN HƯỚNG HÓA - QUẢNG TRỊ</t>
-  </si>
-  <si>
-    <t>BG287127</t>
   </si>
 </sst>
 </file>
@@ -940,6 +940,42 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,42 +999,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2078,8 +2078,8 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,99 +2100,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="77" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="86"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="78"/>
     </row>
     <row r="5" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="53" t="s">
         <v>11</v>
       </c>
@@ -2202,9 +2202,9 @@
       <c r="J5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="86"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="78"/>
     </row>
     <row r="6" spans="1:15" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
@@ -2226,7 +2226,7 @@
         <v>560</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="58">
         <f>SUM(I6:J6)</f>
@@ -2264,19 +2264,19 @@
         <v>1252</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="58">
         <f t="shared" ref="H7" si="0">SUM(I7:J7)</f>
-        <v>1252</v>
+        <v>1119</v>
       </c>
       <c r="I7" s="59">
-        <v>1252</v>
+        <v>1119</v>
       </c>
       <c r="J7" s="57"/>
       <c r="K7" s="57">
         <f t="shared" ref="K7" si="1">F7-H7</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="L7" s="57"/>
       <c r="M7" s="60"/>
@@ -2311,11 +2311,11 @@
       <c r="G9" s="34"/>
       <c r="H9" s="34">
         <f>SUM(H6:H8)</f>
-        <v>1500</v>
+        <v>1367</v>
       </c>
       <c r="I9" s="34">
         <f>SUM(I6:I8)</f>
-        <v>1500</v>
+        <v>1367</v>
       </c>
       <c r="J9" s="34">
         <f>SUM(J6:J8)</f>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="K9" s="34">
         <f>SUM(K6:K8)</f>
-        <v>312</v>
+        <v>445</v>
       </c>
       <c r="L9" s="34"/>
       <c r="M9" s="35"/>
@@ -2342,34 +2342,34 @@
       <c r="G10" s="37"/>
       <c r="H10" s="38"/>
       <c r="I10" s="37"/>
-      <c r="J10" s="69" t="s">
+      <c r="J10" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -2377,31 +2377,31 @@
       <c r="B12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="41"/>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71" t="s">
+      <c r="K12" s="83"/>
+      <c r="L12" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="71"/>
+      <c r="M12" s="83"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="42"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
@@ -2481,27 +2481,38 @@
       <c r="B18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="52"/>
-      <c r="J18" s="68" t="s">
+      <c r="J18" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68" t="s">
+      <c r="K18" s="80"/>
+      <c r="L18" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="68"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:A5"/>
@@ -2515,17 +2526,6 @@
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="M3:M5"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
